--- a/Group_6_demo.xlsx
+++ b/Group_6_demo.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\tekHer\TekHer-Python-Basics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\tekHer\Population-Data-World-Bank-API-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB48675-FBB9-4913-9764-AB5D5A0C22F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C169E-0844-42EE-BA2D-EF74F88738B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="population_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="L585" sqref="L585"/>
     </sheetView>
   </sheetViews>
